--- a/public/5_a_2_de.xlsx
+++ b/public/5_a_2_de.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\G2\Nachhaltigkeit\international\b_Daten\Indikatoren\SDG 5\5-a-2\Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosse-m\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E5FDDA-592A-43BC-8534-10D11C531F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17920" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnis" sheetId="7" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Proxy E" sheetId="5" r:id="rId6"/>
     <sheet name="Proxy F" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wichmann, Kerstin (G205)</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -154,349 +155,7 @@
     <t>Erläuterung des Bundesministeriums für Arbeit und Soziales (BMAS):</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ist die gemeinsame Registrierung von Grund und Boden verpflichtend oder wird sie durch ökomische Anreize gefördert?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ohne die Nennung ihres Namens im Grundbuch bleiben die Eigentumsrechte von Frauen insbesondere im Rahmen von Grundbuchprogrammen und von Grundeigentum, das die Ehegatten während der Ehe erworben haben, unsicher. Dies gilt insbesondere für v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">erheiratete Frauen, die sich trennen, scheiden lassen, verlassen werden oder verwitwet werden.
-Der Proxy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prüft daher, ob der rechtliche und politische Rahmen Bestimmungen enthält, die eine gemeinsame Registrierung bzw. den gemeinsamen Erwerb von Grundstücken erfordern oder die gemeinsame Registrierung durch ökonomische Anreize sowohl für verheiratete als auch für unverheiratete Paare fördern. Hierfür genügt es, dass zumindest für Ehepaare eine gemeinsame Eintragung erfolgt.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Unterstützt der rechtliche und politische Rahmen gleiche Erbrechte für Frauen und Mädchen?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Die Erbschaft ist einer der wichtigsten Wege, über den Frauen Eigentum erwerben und sich eigenständige Grundstücksrechte sichern. Das Fortbestehen diskriminierender kultureller und rechtlicher Normen verwehrt Frauen und Mädchen jedoch häufig gleiche Erbrechte und behindert die Möglichkeit von Frauen, gleichberechtigt mit Männern Eigentum zu erwerben. Insbesondere das Zivil- und Gewohnheitsrecht hat Frauen häufig das Recht verwehrt, zu erben oder zumindest zu gleichen Teilen zu erben, und viele postkoloniale Regierungen haben diese Regeln in das formale Rechtssystem übernommen. In einigen Fällen sind Töchter nur dann erbberechtigt, wenn es keinen nachweisbaren männlichen Verwandten gibt. 
-Proxy C untersucht, inwieweit die Staaten in ihren rechtlichen und politischen Rahmen Bestimmungen aufgenommen haben, die hinterbliebenen Kindern und Ehegatten gleiche Erbrechte bei Grundstücken garantieren, und ob der rechtliche und politische Rahmen eines Staates:
-1. vorsehen, dass Söhne und Töchter gleiche Erbrechte und -anteile haben; und
-2. vorsehen, dass männliche und weibliche hinterbliebene Ehe- und/oder Lebenspartner Anspruch auf einen gleichen Anteil am Nachlass des verstorbenen Ehepartners und/oder ein lebenslanges Wohnrecht haben.
-Für den Proxy müssen sowohl gleiche Erbrechte für Söhne und Töchter als auch für den überlebenden Ehegatten und/oder Partner gewährleistet sein.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Erfordert der rechtliche und politische Rahmen die Zustimmung des Ehepartners bei Grundstücksgeschäften?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wenn ein Ehemann oder ein männlicher Partner einseitig Maßnahmen ergreift, die mit Grundstückgeschäften wie Verkauf, Hypothek oder Verpachtung zu tun haben, insbesondere wenn sie das Heim der Familie oder andere wichtige Vermögenswerte betreffen, können Frauen und Kinder obdachlos werden und keine Mittel für ihren Lebensunterhalt haben. Aus diesem Grund ist vor jeder Grundstückstransaktion die Zustimmung des Ehegatten oder Partners erforderlich, um die Verfügungsrechte der Frauen zu stärken, unabhängig davon, ob sie verheiratet oder unverheiratet sind. Indem sie die Gleichstellung in der Ehe und die gemeinsame Verwaltung wichtiger Güter unterstützen, tragen solche Bestimmungen direkt zur Erreichung des Indikators 5.a.2 bei, insbesondere im Hinblick auf die Gleichstellung der Geschlechter bei der Verfügungsgewalt über Grund und Boden.  
-Mit dem Proxy wird überprüft, ob die Staaten in ihren rechtlichen und politischen Rahmen eine Zustimmung der Ehegatten oder Partner bei Grundstücksgeschäften aufnehmen. Wie bei Proxy A bezieht sich die Bewertung sowohl auf verheiratete als auch auf unverheiratete Paare. Für das Vorliegen von Proxy B reicht es jedoch aus, dass die Zustimmung des Ehepartners zumindest für verheiratete Paare vorgesehen ist.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Werden in Rechtssystemen, die gewohnheitsrechtliche Landrechte anerkennen, die Landrechte von Frauen durch den rechtlichen und politischen Rahmen ausdrücklich geschützt?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Viele Staaten haben gewohnheitsrechtliche Grundbesitzrechte in das formale Rechtssystem aufgenommen und sie damit "formalisiert". Die rechtliche Anerkennung gewohnheitsrechtlicher  Grundbesitzrechte kann jedoch diskriminierende Praktiken verstärken, wenn es keinen ausdrücklichen Schutz für die gewohnheitsrechtlichen  Grundbesitzrechte von Frauen gibt. Darüber hinaus wurde die Verwendung geschlechtsneutraler Bestimmungen im Zusammenhang mit der Formalisierung gewohnheitsrechtlicher Grundbesitzverhältnisse in der Praxis mit einem mangelnden Schutz der Rechte von Frauen in Verbindung gebracht. Um dies zu vermeiden, sollte jede gesetzliche Bestimmung, die gewohnheitsrechtliche  Grundbesitzrechte anerkennt, mit ausdrücklichen Bestimmungen zum Schutz der  Grundbesitzrechte von Frauen einhergehen. 
-Proxy E bewertet, ob die Verfassung und/oder andere Gesetze, die gewohnheitsrechtliche  Grundbesitzrechte anerkennen, einen ausdrücklichen Schutz der Rechte von Frauen an Grund und Boden vorsehen.</t>
-    </r>
-  </si>
-  <si>
     <t>Für Staaten, in denen gewohnheitsrechtlicher Grundbesitz NICHT im rechtlichen Rahmen (entweder über ein Gesetz oder die Verfassung) anerkannt ist, unabhängig davon, ob er de facto existiert oder nicht, wird Proxy E als nicht anwendbar markiert und der Staat wird anhand der fünf verbleibenden Proxys bewertet.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Schreibt der rechtliche und politische Rahmen die Beteiligung von Frauen in Behörden/Institutionen für Bodenmanagement und 
--verwaltung vor?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diese Behörden/Institutionen sind für die Regelung der Grundbesitzverhältnisse und di</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e Verwaltung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> von Grund und Boden zuständig. Frauen sind häufig von der Teilnahme an den alltäglichen Prozessen von Land Governance auf allen Ebenen ausgeschlossen und haben daher nur begrenzte Möglichkeiten, die Entscheidungsfindung zu beeinflussen. Eine mangelnde Vertretung von Frauen führt tendenziell zu verzerrten Ergebnissen bei der Erfassung und Registrierung von Grundstücken und zur Behinde</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rung von Grundstücksansprüchen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> von Frauen, z.B. durch die Missachtung der Rechte von Frauen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">auf Gemeindeland. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Proxy F zielt darauf ab, Bestimmungen innerhalb des rechtlichen Rahmens zu ermitteln, die eine verpflichtende Beteiligung von Frauen (Quoten) in Behörden/Institutionen, die zuständig für die Verwaltung von Grund und Boden sind,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vorschreiben.
-Da es sich bei Proxy F um</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> eine "Sondermaßnahme"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> im Sinne v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>on Art. 4 des Übereinkommens der Vereinten Nationen zur Beseitigung jeder Form von Diskriminierung der Frau (CEDAW)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> handelt, erfüllen auch Länder den Proxy, die</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> diese Maßnahme </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nicht in ihren rechtlichen und politischen Rahmen integrieren, jedoch offizielle nationale statistische Daten vorlegen, aus denen hervorgeht, dass mindestens 40 Prozent der Grundstücke im Besitz und/oder unter der Kontrolle von Frauen sind (z. B. Daten zu SDG 5.a.1 oder 1.4.2).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sieht der rechtliche und politische Rahmen die Zuweisung von Finanzmitteln vor, um die Eigentumsrechte und die Verfügungsgewalt über Grund und Boden von Frauen zu erhöhen?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gesetzliche Reformen zur Förderung der Gleichstellung der Geschlechter in Bezug auf  Grundeigentum und Verfügungsgewalt über Grund und Boden und den Zugang zu anderen produktiven Ressourcen wurden nicht immer in die Praxis umgesetzt. Die unzureichende Umsetzung von boden- und agrarpolitischen Maßnahmen und Gesetzen zur Förderung der Gleichstellung der Geschlechter ist teilweise auf fehlende oder unzureichende finanzielle Ressourcen zurückzuführen. 
-Aus diesem Grund identifiziert dieser Proxy jede gesetzliche Bestimmung, die die Regierung dazu verpflichtet, finanzielle Mittel bereitzustellen, um das Eigentum und die Verfügungsgewalt von Frauen über Grund und Boden oder den Zugang zu produktiven Ressourcen, einschließlich Boden, zu verbessern. Derartige Bestimmungen werden weithin als innovative Maßnahmen zur Förderung der Rechte von Frauen an Grund und Boden angesehen und wurden vom CEDAW-Ausschuss in seinen Beratungen und Kommentaren zu den Berichten der Vertragsstaaten im Rahmen des Abkommens immer wieder befürwortet. Die unerlässliche Voraussetzung für diesen Proxy ist, dass die Geldmittel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>im nationalen Recht verankert sind und den Zweck der Verbesserung der Rechte von Frauen an Grund und Boden ausdrücklich erwähnt.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Da Proxy D eine "Sondermaßnahme" im Sinne von Art. 4 CEDAW darstellt, erfüllen auch Staaten diesen Proxy, die diese Maßnahme nicht in ihrem rechtlichen und politischen Rahmen verankert haben, jedoch offizielle nationale statistische Daten vorlegen, aus denen hervorgeht, dass mindestens 40 Prozent der Eigentums- und/oder Verfügungsrechte an Grund und Boden von Frauen wahrgenommen werden (z. B. Daten zu SDG 5.a.1 oder 1.4.2).</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Das Gesetz für die Gleichstellung von Frauen und Männern in der Bundesverwaltung und in den Gerichten des Bundes (Bundesgleichstellungsgesetz - BGleiG) gilt für alle Dienststellen im Sinne des  § 3 Nummer 5 BGleiG, und zwar Bundesgerichte, Behörden und Verwaltungsstellen der unmittelbaren Bundesverwaltung einschließlich solcher im Bereich der Streitkräfte sowie Körperschaften, Anstalten und Stiftungen des öffentlichen Rechts des Bundes. Gemäß § 8 BGleiG sind Frauen, sofern sie in einem bestimmten Bereich unterrepräsentiert sind, bei der Vergabe von Ausbildungsplätzen, bei Einstellung und beruflichem Aufstieg bevorzugt zu berücksichtigen.
@@ -521,51 +180,325 @@
 Ein lebenslanges Wohnrecht steht dem überlebenden Ehegatten gesetzlich nicht zu. Etwas anders gilt nur dann, wenn der Erblasser ein solches testamentarisch verfügt oder in einem Erbvertrag geregelt hat.
 </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Schreibt der rechtliche und politische Rahmen die Beteiligung von Frauen in Behörden/Institutionen für Bodenmanagement und 
+-verwaltung vor?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Diese Behörden/Institutionen sind für die Regelung der Grundbesitzverhältnisse und di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>e Verwaltung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> von Grund und Boden zuständig. Frauen sind häufig von der Teilnahme an den alltäglichen Prozessen von Land Governance auf allen Ebenen ausgeschlossen und haben daher nur begrenzte Möglichkeiten, die Entscheidungsfindung zu beeinflussen. Eine mangelnde Vertretung von Frauen führt tendenziell zu verzerrten Ergebnissen bei der Erfassung und Registrierung von Grundstücken und zur Behinde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>rung von Grundstücksansprüchen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> von Frauen, z.B. durch die Missachtung der Rechte von Frauen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">auf Gemeindeland. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Proxy F zielt darauf ab, Bestimmungen innerhalb des rechtlichen Rahmens zu ermitteln, die eine verpflichtende Beteiligung von Frauen (Quoten) in Behörden/Institutionen, die zuständig für die Verwaltung von Grund und Boden sind,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>vorschreiben.
+Da es sich bei Proxy F um</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> eine "Sondermaßnahme"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> im Sinne v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>on Art. 4 des Übereinkommens der Vereinten Nationen zur Beseitigung jeder Form von Diskriminierung der Frau (CEDAW)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> handelt, erfüllen auch Länder den Proxy, die</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> diese Maßnahme </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>nicht in ihren rechtlichen und politischen Rahmen integrieren, jedoch offizielle nationale statistische Daten vorlegen, aus denen hervorgeht, dass mindestens 40 Prozent der Grundstücke im Besitz und/oder unter der Kontrolle von Frauen sind (z. B. Daten zu SDG 5.a.1 oder 1.4.2).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Werden in Rechtssystemen, die gewohnheitsrechtliche Landrechte anerkennen, die Landrechte von Frauen durch den rechtlichen und politischen Rahmen ausdrücklich geschützt?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Viele Staaten haben gewohnheitsrechtliche Grundbesitzrechte in das formale Rechtssystem aufgenommen und sie damit "formalisiert". Die rechtliche Anerkennung gewohnheitsrechtlicher  Grundbesitzrechte kann jedoch diskriminierende Praktiken verstärken, wenn es keinen ausdrücklichen Schutz für die gewohnheitsrechtlichen  Grundbesitzrechte von Frauen gibt. Darüber hinaus wurde die Verwendung geschlechtsneutraler Bestimmungen im Zusammenhang mit der Formalisierung gewohnheitsrechtlicher Grundbesitzverhältnisse in der Praxis mit einem mangelnden Schutz der Rechte von Frauen in Verbindung gebracht. Um dies zu vermeiden, sollte jede gesetzliche Bestimmung, die gewohnheitsrechtliche  Grundbesitzrechte anerkennt, mit ausdrücklichen Bestimmungen zum Schutz der  Grundbesitzrechte von Frauen einhergehen. 
+Proxy E bewertet, ob die Verfassung und/oder andere Gesetze, die gewohnheitsrechtliche  Grundbesitzrechte anerkennen, einen ausdrücklichen Schutz der Rechte von Frauen an Grund und Boden vorsehen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sieht der rechtliche und politische Rahmen die Zuweisung von Finanzmitteln vor, um die Eigentumsrechte und die Verfügungsgewalt über Grund und Boden von Frauen zu erhöhen?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gesetzliche Reformen zur Förderung der Gleichstellung der Geschlechter in Bezug auf  Grundeigentum und Verfügungsgewalt über Grund und Boden und den Zugang zu anderen produktiven Ressourcen wurden nicht immer in die Praxis umgesetzt. Die unzureichende Umsetzung von boden- und agrarpolitischen Maßnahmen und Gesetzen zur Förderung der Gleichstellung der Geschlechter ist teilweise auf fehlende oder unzureichende finanzielle Ressourcen zurückzuführen. 
+Aus diesem Grund identifiziert dieser Proxy jede gesetzliche Bestimmung, die die Regierung dazu verpflichtet, finanzielle Mittel bereitzustellen, um das Eigentum und die Verfügungsgewalt von Frauen über Grund und Boden oder den Zugang zu produktiven Ressourcen, einschließlich Boden, zu verbessern. Derartige Bestimmungen werden weithin als innovative Maßnahmen zur Förderung der Rechte von Frauen an Grund und Boden angesehen und wurden vom CEDAW-Ausschuss in seinen Beratungen und Kommentaren zu den Berichten der Vertragsstaaten im Rahmen des Abkommens immer wieder befürwortet. Die unerlässliche Voraussetzung für diesen Proxy ist, dass die Geldmittel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>im nationalen Recht verankert sind und den Zweck der Verbesserung der Rechte von Frauen an Grund und Boden ausdrücklich erwähnt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Da Proxy D eine "Sondermaßnahme" im Sinne von Art. 4 CEDAW darstellt, erfüllen auch Staaten diesen Proxy, die diese Maßnahme nicht in ihrem rechtlichen und politischen Rahmen verankert haben, jedoch offizielle nationale statistische Daten vorlegen, aus denen hervorgeht, dass mindestens 40 Prozent der Eigentums- und/oder Verfügungsrechte an Grund und Boden von Frauen wahrgenommen werden (z. B. Daten zu SDG 5.a.1 oder 1.4.2).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Unterstützt der rechtliche und politische Rahmen gleiche Erbrechte für Frauen und Mädchen?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Die Erbschaft ist einer der wichtigsten Wege, über den Frauen Eigentum erwerben und sich eigenständige Grundstücksrechte sichern. Das Fortbestehen diskriminierender kultureller und rechtlicher Normen verwehrt Frauen und Mädchen jedoch häufig gleiche Erbrechte und behindert die Möglichkeit von Frauen, gleichberechtigt mit Männern Eigentum zu erwerben. Insbesondere das Zivil- und Gewohnheitsrecht hat Frauen häufig das Recht verwehrt, zu erben oder zumindest zu gleichen Teilen zu erben, und viele postkoloniale Regierungen haben diese Regeln in das formale Rechtssystem übernommen. In einigen Fällen sind Töchter nur dann erbberechtigt, wenn es keinen nachweisbaren männlichen Verwandten gibt. 
+Proxy C untersucht, inwieweit die Staaten in ihren rechtlichen und politischen Rahmen Bestimmungen aufgenommen haben, die hinterbliebenen Kindern und Ehegatten gleiche Erbrechte bei Grundstücken garantieren, und ob der rechtliche und politische Rahmen eines Staates:
+1. vorsehen, dass Söhne und Töchter gleiche Erbrechte und -anteile haben; und
+2. vorsehen, dass männliche und weibliche hinterbliebene Ehe- und/oder Lebenspartner Anspruch auf einen gleichen Anteil am Nachlass des verstorbenen Ehepartners und/oder ein lebenslanges Wohnrecht haben.
+Für den Proxy müssen sowohl gleiche Erbrechte für Söhne und Töchter als auch für den überlebenden Ehegatten und/oder Partner gewährleistet sein.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Erfordert der rechtliche und politische Rahmen die Zustimmung des Ehepartners bei Grundstücksgeschäften?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wenn ein Ehemann oder ein männlicher Partner einseitig Maßnahmen ergreift, die mit Grundstückgeschäften wie Verkauf, Hypothek oder Verpachtung zu tun haben, insbesondere wenn sie das Heim der Familie oder andere wichtige Vermögenswerte betreffen, können Frauen und Kinder obdachlos werden und keine Mittel für ihren Lebensunterhalt haben. Aus diesem Grund ist vor jeder Grundstückstransaktion die Zustimmung des Ehegatten oder Partners erforderlich, um die Verfügungsrechte der Frauen zu stärken, unabhängig davon, ob sie verheiratet oder unverheiratet sind. Indem sie die Gleichstellung in der Ehe und die gemeinsame Verwaltung wichtiger Güter unterstützen, tragen solche Bestimmungen direkt zur Erreichung des Indikators 5.a.2 bei, insbesondere im Hinblick auf die Gleichstellung der Geschlechter bei der Verfügungsgewalt über Grund und Boden.  
+Mit dem Proxy wird überprüft, ob die Staaten in ihren rechtlichen und politischen Rahmen eine Zustimmung der Ehegatten oder Partner bei Grundstücksgeschäften aufnehmen. Wie bei Proxy A bezieht sich die Bewertung sowohl auf verheiratete als auch auf unverheiratete Paare. Für das Vorliegen von Proxy B reicht es jedoch aus, dass die Zustimmung des Ehepartners zumindest für verheiratete Paare vorgesehen ist.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ist die gemeinsame Registrierung von Grund und Boden verpflichtend oder wird sie durch ökonomische Anreize gefördert?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ohne die Nennung ihres Namens im Grundbuch bleiben die Eigentumsrechte von Frauen insbesondere im Rahmen von Grundbuchprogrammen und von Grundeigentum, das die Ehegatten während der Ehe erworben haben, unsicher. Dies gilt insbesondere für v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">erheiratete Frauen, die sich trennen, scheiden lassen, verlassen werden oder verwitwet werden.
+Der Proxy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="MetaNormalLF-Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>prüft daher, ob der rechtliche und politische Rahmen Bestimmungen enthält, die eine gemeinsame Registrierung bzw. den gemeinsamen Erwerb von Grundstücken erfordern oder die gemeinsame Registrierung durch ökonomische Anreize sowohl für verheiratete als auch für unverheiratete Paare fördern. Hierfür genügt es, dass zumindest für Ehepaare eine gemeinsame Eintragung erfolgt.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -584,11 +517,63 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MetaNormalLF-Roman"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MetaNormalLF-Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -632,60 +617,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -967,133 +955,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.90625" style="3"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="str">
+      <c r="B10" s="6" t="str">
         <f>'Proxy A'!B3</f>
         <v>Nein</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13" t="str">
+      <c r="B11" s="6" t="str">
         <f>'Proxy B'!B3</f>
         <v>Ja</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13" t="str">
+      <c r="B12" s="6" t="str">
         <f>'Proxy C'!B3</f>
         <v>Ja</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13" t="str">
+      <c r="B13" s="6" t="str">
         <f>'Proxy D'!B3</f>
         <v>Nein</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13" t="str">
+      <c r="B14" s="6" t="str">
         <f>'Proxy E'!B3</f>
         <v>keine Angabe</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13" t="str">
+      <c r="B15" s="6" t="str">
         <f>'Proxy F'!B3</f>
         <v>Ja</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -1102,11 +1088,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B17" s="8" t="str">
         <f>IF(B16=0,"Band 1",IF(B16=1,"Band 2",IF(B16=2,"Band 3",IF(B16=3,"Band 4",IF(B16=4,"Band 5","Band 6")))))</f>
         <v>Band 4</v>
       </c>
@@ -1122,61 +1108,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="10.90625" style="10"/>
+    <col min="1" max="1" width="12.140625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="118" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:11" ht="117.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1189,61 +1177,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="175.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="206.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="206.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1257,61 +1245,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="219" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="292" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+    <row r="6" spans="1:11" ht="291.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1327,36 +1315,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="246" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1373,63 +1361,63 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="159.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1442,61 +1430,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="204.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+    <row r="6" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
